--- a/unit_excel.xlsx
+++ b/unit_excel.xlsx
@@ -30,13 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,21 +95,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>case2_GET接口示例</t>
-    <rPh sb="9" eb="10">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://dealercloudapi.che168.com/tradercloud/v120/login/login.ashx</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/api/usercenter/login?msg=1&amp;_=1516547179893</t>
   </si>
 </sst>
 </file>
@@ -520,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -543,25 +526,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.15">
@@ -569,53 +552,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D7" s="2"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/unit_excel.xlsx
+++ b/unit_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renyi/Desktop/excel_unittest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renyi/Workspace/git-workspace/git-python/project_combat/unittest_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,15 +78,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_node_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url_params</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_json_node</t>
   </si>
   <si>
     <t>case1_post接口示例</t>
@@ -95,7 +92,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>case2_GET接口示例</t>
+    <rPh sb="9" eb="10">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://dealercloudapi.che168.com/tradercloud/v120/login/login.ashx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lagou.com/lbs/getAllCitySearchLabels.json</t>
+  </si>
+  <si>
+    <t>check_single_node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_path/script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returncode = resp_obj['returncode']
+print(returncode)
+if returncode==1:
+    pass
+else:
+    assert(returncode, 1 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -526,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.15">
@@ -552,29 +591,79 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D6" s="2"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
